--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="146" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="166" uniqueCount="36">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="166" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="170" uniqueCount="36">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="170" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="342" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>S01_09-06-2024_001.mat</t>
   </si>
 </sst>
 </file>
@@ -910,8 +913,12 @@
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="342" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="366" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="366" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="382" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="382" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="518" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="518" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="630" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="630" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="650" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="650" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="654" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="654" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="698" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="698" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="726" uniqueCount="37">
   <si>
     <t>SubjectID</t>
   </si>

--- a/Surgeon_db.xlsx
+++ b/Surgeon_db.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="726" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="906" uniqueCount="50">
   <si>
     <t>SubjectID</t>
   </si>
@@ -212,6 +212,45 @@
   </si>
   <si>
     <t>S01_09-06-2024_001.mat</t>
+  </si>
+  <si>
+    <t>P03_10-01-2024-001.mat</t>
+  </si>
+  <si>
+    <t>P03_10-01-2024-002.mat</t>
+  </si>
+  <si>
+    <t>P03_10-01-2024-003.mat</t>
+  </si>
+  <si>
+    <t>P05_10-10-2024-001.mat</t>
+  </si>
+  <si>
+    <t>P06_10-10-2024-001.mat</t>
+  </si>
+  <si>
+    <t>P07_11-22-2024-001.mat</t>
+  </si>
+  <si>
+    <t>P07_11-22-2024-002.mat</t>
+  </si>
+  <si>
+    <t>P08_01-22-2025-001.mat</t>
+  </si>
+  <si>
+    <t>P09_01-23-2025-001.mat</t>
+  </si>
+  <si>
+    <t>P09_01-23-2025-002.mat</t>
+  </si>
+  <si>
+    <t>P10_01-24-2025-001.mat</t>
+  </si>
+  <si>
+    <t>P11_01-24-2025-001.mat</t>
+  </si>
+  <si>
+    <t>P11_01-24-2025-002.mat</t>
   </si>
 </sst>
 </file>
@@ -892,7 +931,7 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="1" max="1" width="22" customWidth="true"/>
     <col min="2" max="2" width="5.26953125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -914,59 +953,107 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
